--- a/www/IndicatorsPerCountry/Guinea_GDPperCapita_TerritorialRef_1958_2012_CCode_324.xlsx
+++ b/www/IndicatorsPerCountry/Guinea_GDPperCapita_TerritorialRef_1958_2012_CCode_324.xlsx
@@ -237,13 +237,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Guinea_GDPperCapita_TerritorialRef_1958_2012_CCode_324.xlsx
+++ b/www/IndicatorsPerCountry/Guinea_GDPperCapita_TerritorialRef_1958_2012_CCode_324.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="82">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,178 +36,193 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>421</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>558</t>
+    <t>520</t>
+  </si>
+  <si>
+    <t>542</t>
   </si>
   <si>
     <t>550</t>
   </si>
   <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>537</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>540.005870766</t>
-  </si>
-  <si>
-    <t>516.338714202</t>
-  </si>
-  <si>
-    <t>514.918252563</t>
-  </si>
-  <si>
-    <t>525.574328257</t>
-  </si>
-  <si>
-    <t>529.889031645</t>
-  </si>
-  <si>
-    <t>537.088881562</t>
-  </si>
-  <si>
-    <t>545.732953895</t>
-  </si>
-  <si>
-    <t>566.418578837</t>
-  </si>
-  <si>
-    <t>584.953824061</t>
-  </si>
-  <si>
-    <t>593.29910479</t>
-  </si>
-  <si>
-    <t>591.467751356</t>
-  </si>
-  <si>
-    <t>610.199165396</t>
-  </si>
-  <si>
-    <t>616.409930913</t>
-  </si>
-  <si>
-    <t>607.044364378</t>
-  </si>
-  <si>
-    <t>608.449930612</t>
-  </si>
-  <si>
-    <t>614.285105635</t>
-  </si>
-  <si>
-    <t>616.645314667</t>
-  </si>
-  <si>
-    <t>613.111878758</t>
-  </si>
-  <si>
-    <t>627.644353358</t>
+    <t>563</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>872</t>
+  </si>
+  <si>
+    <t>859</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>827.006899123684</t>
+  </si>
+  <si>
+    <t>833.226762332466</t>
+  </si>
+  <si>
+    <t>862.731285361005</t>
+  </si>
+  <si>
+    <t>882.494426799569</t>
+  </si>
+  <si>
+    <t>906.264389671341</t>
+  </si>
+  <si>
+    <t>927.12947969862</t>
+  </si>
+  <si>
+    <t>976.496625957152</t>
+  </si>
+  <si>
+    <t>1010.79190263154</t>
+  </si>
+  <si>
+    <t>1031.38254533899</t>
+  </si>
+  <si>
+    <t>1046.56706272681</t>
+  </si>
+  <si>
+    <t>1090.65199691792</t>
+  </si>
+  <si>
+    <t>1148.54467847906</t>
+  </si>
+  <si>
+    <t>1146.3352913077</t>
+  </si>
+  <si>
+    <t>1159.82503467527</t>
+  </si>
+  <si>
+    <t>1186.60479343225</t>
+  </si>
+  <si>
+    <t>1188.48457591907</t>
+  </si>
+  <si>
+    <t>1253.40771871762</t>
+  </si>
+  <si>
+    <t>1290.4037004352</t>
+  </si>
+  <si>
+    <t>1255.24185529761</t>
+  </si>
+  <si>
+    <t>1291.69622840926</t>
+  </si>
+  <si>
+    <t>1347</t>
+  </si>
+  <si>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>1421</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>1417</t>
   </si>
   <si>
     <t>Description</t>
@@ -869,7 +884,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -886,7 +901,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
@@ -903,7 +918,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -920,7 +935,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -937,7 +952,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -954,7 +969,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -971,7 +986,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
@@ -988,7 +1003,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
@@ -1005,7 +1020,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
@@ -1022,7 +1037,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -1039,7 +1054,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
@@ -1056,7 +1071,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
@@ -1073,7 +1088,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
@@ -1090,7 +1105,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1122,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1139,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
@@ -1141,7 +1156,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51">
@@ -1158,7 +1173,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52">
@@ -1175,7 +1190,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -1192,7 +1207,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54">
@@ -1209,7 +1224,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
@@ -1226,7 +1241,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56">
@@ -1243,7 +1258,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57">
@@ -1260,7 +1275,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
@@ -1277,7 +1292,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59">
@@ -1294,7 +1309,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
@@ -1311,7 +1326,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1329,50 +1480,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
